--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111347.5499905288</v>
+        <v>109459.9684741268</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>422333.9337001317</v>
+        <v>246790.0875400872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>254.6080754572354</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.8301610863211</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>89.06613335611772</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>12.64662314581916</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.4613476457864</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>144.0731271501067</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>285.7781271330196</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.5932792900573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>65.05884990877797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.68762643336709</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>101.8290650634787</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7484645753301</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>67.55352797375772</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.98836639312832</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>111.9679966130648</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>148.417764999155</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>170.7164768414879</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>235.3731098325678</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>137.9886040864992</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>2.496989041814403</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965509</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>35.69637841137896</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437398</v>
+        <v>90.21779139437417</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>94.70546019192709</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897886</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378956</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1602.481113437761</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.481113437761</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>638.1631929376285</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>638.1631929376285</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
         <v>959.5129866402885</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2684.374724204264</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2684.374724204264</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2430.612938842355</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2430.612938842355</v>
+        <v>2087.729514440025</v>
       </c>
       <c r="W5" t="n">
-        <v>2077.844283572241</v>
+        <v>2087.729514440025</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.378525311161</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,13 +4653,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>582.6005729437002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>582.6005729437002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1094.711785517216</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1094.711785517216</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.828354776384</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T10" t="n">
-        <v>662.4129741975678</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U10" t="n">
-        <v>662.4129741975678</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>662.4129741975678</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>372.9958041606071</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M12" t="n">
-        <v>618.7675319762811</v>
+        <v>828.4426798345003</v>
       </c>
       <c r="N12" t="n">
-        <v>1423.179110240432</v>
+        <v>1632.854258098651</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.642871543091</v>
+        <v>2302.31801940131</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1061.198110430972</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V13" t="n">
-        <v>1061.198110430972</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>1061.198110430972</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>1061.198110430972</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.713685310447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>985.713685310447</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X16" t="n">
-        <v>985.713685310447</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.713685310447</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5746515181232</v>
+        <v>506.9309493198501</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1275.299095712312</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5680,16 +5680,16 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1119.6852701931</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>830.5566314066584</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>575.8721432007717</v>
+        <v>844.028040127399</v>
       </c>
       <c r="W19" t="n">
-        <v>575.8721432007717</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="X19" t="n">
-        <v>575.8721432007717</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.8721432007717</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,10 +5744,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0704661731477</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M21" t="n">
-        <v>1506.438612565609</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.533454227377</v>
+        <v>1620.996162334878</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.5481934947356</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>210.3160779381291</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1348.999336215321</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1348.999336215321</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.87069742888</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>805.1862092229927</v>
+        <v>909.3712637033466</v>
       </c>
       <c r="W22" t="n">
-        <v>805.1862092229927</v>
+        <v>619.954093666386</v>
       </c>
       <c r="X22" t="n">
-        <v>577.1966583249754</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1966583249754</v>
+        <v>391.9645427683688</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>435.8912381133352</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>1204.259384505797</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N24" t="n">
-        <v>1548.780040143415</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507113</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1215.400281421255</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>991.6148662107611</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>702.4862274243193</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="W25" t="n">
-        <v>972.0370157789683</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X25" t="n">
-        <v>744.047464880951</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.047464880951</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>1645.803509761998</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N27" t="n">
-        <v>1797.533454227377</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.5778825909699</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>699.5778825909699</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>268.6754855415406</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.5778825909699</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>196.7938704970896</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181233</v>
+        <v>607.6841393416023</v>
       </c>
       <c r="L30" t="n">
-        <v>424.0331423495621</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M30" t="n">
-        <v>744.3684618792639</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.780040143415</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.005812914102</v>
+        <v>583.6915747572953</v>
       </c>
       <c r="C31" t="n">
-        <v>525.830495267566</v>
+        <v>470.5162571107591</v>
       </c>
       <c r="D31" t="n">
-        <v>431.4747211366014</v>
+        <v>376.1604829797942</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463194</v>
+        <v>284.0082546787718</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297801</v>
+        <v>192.8791724622324</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.101513126953</v>
+        <v>1712.787274970147</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.733739621882</v>
+        <v>1479.419501465076</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.810116697366</v>
+        <v>1280.49587854056</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.153811941776</v>
+        <v>1046.83957378497</v>
       </c>
       <c r="X31" t="n">
-        <v>929.9251263251298</v>
+        <v>874.6108881683235</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.8934124629707</v>
+        <v>709.5791743061642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>224.7537295707647</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>224.7537295707647</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.660951743751</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N33" t="n">
-        <v>1884.71518556015</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.178946862809</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6941,7 +6941,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M36" t="n">
-        <v>1943.479731976179</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N36" t="n">
-        <v>1943.479731976179</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2612.943493278838</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,25 +7172,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>780.4118937509533</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1548.780040143415</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.780040143415</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N42" t="n">
-        <v>2112.152043068196</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.905457152158</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>711.1141612171746</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N45" t="n">
-        <v>1515.525739481325</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7783,19 +7783,19 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>310.0428971440474</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>149.6471918202029</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>212.4466810925944</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>244.2385421467092</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>425.3769056810785</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>312.6482631139015</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>284.6042822503824</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>342.0478048621356</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>410.1843725039375</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>175.7242366109976</v>
       </c>
       <c r="N42" t="n">
-        <v>187.3601610345301</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>184.4082873350986</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>7.498356523297701</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>153.9940330846315</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>158.7212889959088</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>36.94583175447132</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>49.50304498444825</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>27.2043331421153</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>51.14988850402321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>10.62686893171312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.0876643102804</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>55.53432760663294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>16.58485164289343</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571471</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523552</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26323,34 +26323,34 @@
         <v>273720.3418163962</v>
       </c>
       <c r="F2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="G2" t="n">
+        <v>273720.341816396</v>
+      </c>
+      <c r="H2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="I2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="J2" t="n">
         <v>273720.3418163963</v>
       </c>
-      <c r="G2" t="n">
-        <v>273720.3418163963</v>
-      </c>
-      <c r="H2" t="n">
-        <v>273720.341816396</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163961</v>
-      </c>
-      <c r="J2" t="n">
-        <v>273720.3418163962</v>
-      </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524989</v>
       </c>
-      <c r="N2" t="n">
-        <v>287364.6194524992</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524988</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524988</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284585</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758512</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759575</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.793690575885</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.793690575885</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758875</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758411</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477245</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,13 +26491,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524521.4770060737</v>
+        <v>-524521.4770060736</v>
       </c>
       <c r="C6" t="n">
-        <v>65446.40220847088</v>
+        <v>65446.40220847086</v>
       </c>
       <c r="D6" t="n">
-        <v>65446.40220847091</v>
+        <v>65446.40220847086</v>
       </c>
       <c r="E6" t="n">
-        <v>-344214.8142997922</v>
+        <v>-344312.2734257646</v>
       </c>
       <c r="F6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="G6" t="n">
-        <v>180945.2221771038</v>
+        <v>180847.7630511314</v>
       </c>
       <c r="H6" t="n">
-        <v>180945.2221771035</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="I6" t="n">
-        <v>180945.2221771036</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="J6" t="n">
-        <v>4522.002984510691</v>
+        <v>4424.543858538686</v>
       </c>
       <c r="K6" t="n">
-        <v>125032.2661038482</v>
+        <v>125013.772365914</v>
       </c>
       <c r="L6" t="n">
-        <v>156100.0258997107</v>
+        <v>156100.0258997108</v>
       </c>
       <c r="M6" t="n">
-        <v>31641.91746674002</v>
+        <v>31641.91746674036</v>
       </c>
       <c r="N6" t="n">
-        <v>166442.9327005775</v>
+        <v>166442.9327005771</v>
       </c>
       <c r="O6" t="n">
         <v>166442.9327005771</v>
       </c>
       <c r="P6" t="n">
-        <v>122280.3273977312</v>
+        <v>122280.3273977315</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>110.6648163137721</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>109.8528805343619</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.21574088586</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,19 +27664,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>161.7690896631524</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.2909108243485</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>2.592064830051157</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>96.15224293924223</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.6446593659963</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>24.56890738984562</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.9762555493063</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.941486971190898e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529255</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071302</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,16 +31832,16 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31853,13 +31853,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32084,28 +32084,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>143.0713543910591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>181.5664161527426</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,28 +32558,28 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>155.0492288999205</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>62.65625652615876</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33023,25 +33023,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>23.85840434223286</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33193,7 +33193,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
         <v>562.4526372540886</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>101.3291964139385</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>2.201088942062029</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33661,7 +33661,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565519</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33737,22 +33737,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>338.200788113563</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>43.17892664331816</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,22 +33974,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>331.1859963277585</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>33.59020268897933</v>
+        <v>199.2022664297722</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>167.9088632220291</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35504,13 +35504,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>15.67278440587264</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>466.6423842190407</v>
       </c>
       <c r="N15" t="n">
-        <v>81.1049690092611</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>413.8523816763276</v>
       </c>
       <c r="M18" t="n">
-        <v>102.1045082246909</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>294.0351935977452</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>406.3153037322056</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>174.0938833340273</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>386.2272863541403</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>347.4294341702144</v>
       </c>
       <c r="N27" t="n">
-        <v>153.2625701670491</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>100.5826050876806</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>203.4934250822615</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>128.8248869802816</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>278.8426604206043</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>661.7718179415446</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>391.1795889035384</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686865</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>563.4719618513435</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>448.583267347901</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>33.59020268897925</v>
       </c>
       <c r="N42" t="n">
-        <v>56.01844895119682</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>284.8562775212644</v>
+        <v>450.4683412620573</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
